--- a/Test_data/Login_data.xlsx
+++ b/Test_data/Login_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sakthivel\Desktop\LT6\Amazon\Test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC018D1B-8907-43CA-A9CE-66C4D068B9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D1A786-FAA4-4298-BA6C-5BEF2C610FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4044" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{C2091C8F-ABA4-426D-B9BB-68407B674204}"/>
+    <workbookView xWindow="1920" yWindow="5556" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{C2091C8F-ABA4-426D-B9BB-68407B674204}"/>
   </bookViews>
   <sheets>
     <sheet name="Invalid credentials" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>${phone_number}</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>//span[@id='nav-link-accountList-nav-line-1']</t>
+  </si>
+  <si>
+    <t>//*[@id='nav-link-accountList-nav-line-1']</t>
+  </si>
+  <si>
+    <t>Hello, Nithish</t>
   </si>
 </sst>
 </file>
@@ -518,7 +524,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -564,6 +570,12 @@
       <c r="D2" t="s">
         <v>12</v>
       </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
